--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_14.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_14.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N257"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.23219895362854</v>
+        <v>0.001062154769897461</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008777379989624023</v>
+        <v>0.0006451606750488281</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006947755813598633</v>
+        <v>0.008590936660766602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 3), (3, 2), (3, 0), (2, 0), (2, 2), (2, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 3], [3, 2], [3, 0], [2, 0], [2, 2], [2, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(3, 3), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[3, 3], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 2), (3, 1)]</t>
+          <t>[[3, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 2), (1, 1), (2, 1), (1, 0), (0, 1), (2, 2), (1, 3), (0, 3), (0, 0), (2, 0), (2, 3), (3, 2), (3, 1)]</t>
+          <t>[[0, 2], [1, 2], [1, 1], [2, 1], [1, 0], [0, 1], [2, 2], [1, 3], [0, 3], [0, 0], [2, 0], [2, 3], [3, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (1, 1), (0, 0), (0, 3), (2, 3), (2, 0), (3, 0), (3, 2), (1, 2), (1, 0), (1, 3), (2, 1), (2, 2)]</t>
+          <t>[[0, 2], [0, 1], [1, 1], [0, 0], [0, 3], [2, 3], [2, 0], [3, 0], [3, 2], [1, 2], [1, 0], [1, 3], [2, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -2264,110 +2264,120 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>35</v>
+        <v>0.9978635150727226</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>203</v>
+        <v>35</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.2789390087127686</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.03424215316772461</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I257" t="inlineStr">
+      <c r="I258" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J257" t="inlineStr">
+      <c r="J258" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K257" t="inlineStr">
+      <c r="K258" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L257" t="inlineStr">
+      <c r="L258" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr">
+      <c r="M258" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N257" t="inlineStr">
+      <c r="N258" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_14.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_14.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001062154769897461</v>
+        <v>0.0007979869842529297</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006451606750488281</v>
+        <v>0.0005328655242919922</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008590936660766602</v>
+        <v>0.03027200698852539</v>
       </c>
     </row>
     <row r="8">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.03424215316772461</v>
+        <v>0.0550382137298584</v>
       </c>
     </row>
     <row r="258">
